--- a/Setup.xlsx
+++ b/Setup.xlsx
@@ -39,7 +39,7 @@
     <t>GBPCAD</t>
   </si>
   <si>
-    <t>D1</t>
+    <t>H1</t>
   </si>
 </sst>
 </file>
@@ -360,7 +360,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -384,7 +384,7 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>8136201</v>
+        <v>8136205</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -395,7 +395,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>8136202</v>
+        <v>8136204</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -406,7 +406,7 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>8136203</v>
+        <v>8136206</v>
       </c>
     </row>
   </sheetData>
